--- a/sound/soundfreq_master.xlsx
+++ b/sound/soundfreq_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janel\Desktop\cantfreq_dec2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B37760A-75ED-4154-A7AA-D8797D6E675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A20BCB-6111-4BD5-ADF3-B399979C94EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00F956B1-9CD6-4AD1-8F9D-6F9F6BBAB33A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6171" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="1181">
   <si>
     <t>Structure</t>
   </si>
@@ -3570,6 +3570,15 @@
   </si>
   <si>
     <t>colloquial</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>counts for tone = counts for syllable.</t>
+  </si>
+  <si>
+    <t>includes syllabic nasals</t>
   </si>
 </sst>
 </file>
@@ -3577,7 +3586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3611,7 +3620,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3927,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F37725-A564-4859-9D98-AC9E3438F68D}">
-  <dimension ref="A1:Q1233"/>
+  <dimension ref="A1:R1233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="68" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="48" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3948,9 +3957,10 @@
     <col min="14" max="14" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4002,8 +4012,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -4058,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4113,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4168,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4186,11 +4199,11 @@
       </c>
       <c r="F5">
         <f>SUM(F$106:F$111)</f>
-        <v>15638</v>
+        <v>15637</v>
       </c>
       <c r="G5">
         <f>SUM(G$106:G$111)</f>
-        <v>134770</v>
+        <v>134769</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4222,8 +4235,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4278,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4333,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4388,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -4442,8 +4458,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4498,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4553,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -4608,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -4662,8 +4681,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4721,8 +4743,11 @@
         <f>O14/O$12</f>
         <v>6.7078612338036442E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4781,7 +4806,7 @@
         <v>1.3229674037059394E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -10108,18 +10133,18 @@
         <v>39</v>
       </c>
       <c r="F106">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="G106">
-        <v>30472</v>
+        <v>30471</v>
       </c>
       <c r="H106" s="2">
         <f>F106/F$5</f>
-        <v>0.24830540989896407</v>
+        <v>0.24825733836413635</v>
       </c>
       <c r="I106" s="2">
         <f>G106/G$5</f>
-        <v>0.22610373228463307</v>
+        <v>0.22609798989381832</v>
       </c>
       <c r="J106">
         <v>3683</v>
@@ -10174,11 +10199,11 @@
       </c>
       <c r="H107" s="2">
         <f t="shared" ref="H107:H111" si="18">F107/F$5</f>
-        <v>0.14093873896917763</v>
+        <v>0.14094775212636695</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" ref="I107:I111" si="19">G107/G$5</f>
-        <v>0.16271425391407585</v>
+        <v>0.16271546127076703</v>
       </c>
       <c r="J107">
         <v>2293</v>
@@ -10233,11 +10258,11 @@
       </c>
       <c r="H108" s="2">
         <f t="shared" si="18"/>
-        <v>0.19152065481519376</v>
+        <v>0.19153290273070281</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="19"/>
-        <v>0.16183868813534169</v>
+        <v>0.16183988899524371</v>
       </c>
       <c r="J108">
         <v>2282</v>
@@ -10292,11 +10317,11 @@
       </c>
       <c r="H109" s="2">
         <f t="shared" si="18"/>
-        <v>0.14726947179946284</v>
+        <v>0.14727888981262391</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" si="19"/>
-        <v>0.12622987311716258</v>
+        <v>0.12623080975595277</v>
       </c>
       <c r="J109">
         <v>2455</v>
@@ -10351,11 +10376,11 @@
       </c>
       <c r="H110" s="2">
         <f t="shared" si="18"/>
-        <v>6.087735004476276E-2</v>
+        <v>6.0881243205218392E-2</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" si="19"/>
-        <v>0.11579728426207613</v>
+        <v>0.11579814348997174</v>
       </c>
       <c r="J110">
         <v>783</v>
@@ -10410,11 +10435,11 @@
       </c>
       <c r="H111" s="2">
         <f t="shared" si="18"/>
-        <v>0.21108837447243894</v>
+        <v>0.2111018737609516</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" si="19"/>
-        <v>0.20731616828671071</v>
+        <v>0.20731770659424645</v>
       </c>
       <c r="J111">
         <v>2892</v>
